--- a/WatanyaPingTester/bin/Debug/res/alexColorReport.xlsx
+++ b/WatanyaPingTester/bin/Debug/res/alexColorReport.xlsx
@@ -705,22 +705,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="E4" s="4">
         <v>100</v>
       </c>
       <c r="F4" s="4">
-        <v>100</v>
+        <v>98.47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -771,22 +771,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="B10" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -837,22 +837,22 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="B16" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="E16" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -903,22 +903,22 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="B22" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="D22" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="E22" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -966,19 +966,19 @@
         <v>100</v>
       </c>
       <c r="B26" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
       <c r="C26" s="4">
         <v>100</v>
       </c>
       <c r="D26" s="4">
-        <v>100</v>
+        <v>95.8</v>
       </c>
       <c r="E26" s="4">
-        <v>100</v>
+        <v>94.66</v>
       </c>
       <c r="F26" s="4">
-        <v>100</v>
+        <v>94.27</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -1029,22 +1029,22 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="B32" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="D32" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="E32" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>100</v>
+        <v>96.56</v>
       </c>
       <c r="B36" s="4">
         <v>100</v>
@@ -1131,22 +1131,22 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="B42" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="D42" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="E42" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,16 +1183,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="B46" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="C46" s="4">
-        <v>100</v>
+        <v>96.56</v>
       </c>
       <c r="D46" s="4">
-        <v>100</v>
+        <v>90.46</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -1245,22 +1245,22 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="B52" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="C52" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="D52" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="E52" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="F52" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,16 +1297,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
       <c r="B56" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
       <c r="C56" s="4">
-        <v>100</v>
+        <v>99.24</v>
       </c>
       <c r="D56" s="4">
-        <v>100</v>
+        <v>96.56</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -1359,22 +1359,22 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="B62" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="C62" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="D62" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="E62" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="F62" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1411,13 +1411,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
       <c r="B66" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
       <c r="C66" s="4">
-        <v>100</v>
+        <v>98.47</v>
       </c>
       <c r="D66" s="4">
         <v>100</v>
@@ -1473,22 +1473,22 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="B72" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="C72" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="D72" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="E72" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="F72" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1533,22 +1533,22 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
       <c r="B76" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
       <c r="C76" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
       <c r="D76" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="E76" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
       <c r="F76" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -1599,22 +1599,22 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="B82" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="C82" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="D82" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="E82" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="F82" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -1643,10 +1643,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>100</v>
+        <v>98.47</v>
       </c>
       <c r="B86" s="4">
-        <v>100</v>
+        <v>96.18</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -1701,22 +1701,22 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="B92" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="C92" s="4">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="D92" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="E92" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="F92" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -1761,19 +1761,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
       <c r="B96" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
       <c r="C96" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
       <c r="D96" s="4">
-        <v>0</v>
+        <v>26.72</v>
       </c>
       <c r="E96" s="4">
-        <v>0</v>
+        <v>26.34</v>
       </c>
       <c r="F96" s="4">
         <v>0</v>

--- a/WatanyaPingTester/bin/Debug/res/alexColorReport.xlsx
+++ b/WatanyaPingTester/bin/Debug/res/alexColorReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fahim\Pingo\WatanyaPingTester\bin\Debug\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Fahim\C#\New folder\Pingo\WatanyaPingTester\bin\Debug\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6855" windowHeight="4335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,270 +24,255 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="88">
-  <si>
-    <t>El Sheikh Zaid Gate:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="83">
+  <si>
+    <t>Degla From 0929 to 0929:</t>
   </si>
   <si>
     <t>Company</t>
   </si>
   <si>
-    <t>169.254.1.1</t>
+    <t>10.0.10.100</t>
   </si>
   <si>
     <t>Mokattam</t>
   </si>
   <si>
-    <t>169.254.1.3</t>
-  </si>
-  <si>
-    <t>169.254.1.5</t>
-  </si>
-  <si>
-    <t>V 2282</t>
-  </si>
-  <si>
-    <t>169.254.1.7</t>
-  </si>
-  <si>
-    <t>169.254.1.35</t>
-  </si>
-  <si>
-    <t>El Sheikh Zaid Gate</t>
-  </si>
-  <si>
-    <t>169.254.1.36</t>
-  </si>
-  <si>
-    <t>Road El Farag Gate:</t>
-  </si>
-  <si>
-    <t>169.254.1.87</t>
-  </si>
-  <si>
-    <t>Road El Farag Gate</t>
-  </si>
-  <si>
-    <t>169.254.1.88</t>
-  </si>
-  <si>
-    <t>Cairo Gate:</t>
-  </si>
-  <si>
-    <t>169.254.1.10</t>
-  </si>
-  <si>
-    <t>Cairo Gate</t>
-  </si>
-  <si>
-    <t>169.254.1.9</t>
-  </si>
-  <si>
-    <t>Abo Rawash Gate:</t>
-  </si>
-  <si>
-    <t>169.254.1.85</t>
-  </si>
-  <si>
-    <t>Watanya Gas Station</t>
-  </si>
-  <si>
-    <t>169.254.1.86</t>
-  </si>
-  <si>
-    <t>169.254.1.89</t>
-  </si>
-  <si>
-    <t>Abo Rawash Exchange</t>
-  </si>
-  <si>
-    <t>169.254.1.90</t>
-  </si>
-  <si>
-    <t>169.254.1.91</t>
-  </si>
-  <si>
-    <t>Abo Rawash Gate</t>
-  </si>
-  <si>
-    <t>169.254.1.92</t>
-  </si>
-  <si>
-    <t>Chillout:</t>
-  </si>
-  <si>
-    <t>169.254.1.83</t>
-  </si>
-  <si>
-    <t>Chillout</t>
-  </si>
-  <si>
-    <t>169.254.1.84</t>
-  </si>
-  <si>
-    <t>6 October Gate:</t>
-  </si>
-  <si>
-    <t>169.254.1.11</t>
-  </si>
-  <si>
-    <t>Matar Gharb</t>
-  </si>
-  <si>
-    <t>169.254.1.12</t>
-  </si>
-  <si>
-    <t>169.254.1.13</t>
-  </si>
-  <si>
-    <t>V 4412</t>
-  </si>
-  <si>
-    <t>169.254.1.14</t>
-  </si>
-  <si>
-    <t>169.254.1.15</t>
-  </si>
-  <si>
-    <t>6 October Gate</t>
-  </si>
-  <si>
-    <t>169.254.1.16</t>
-  </si>
-  <si>
-    <t>Sadat 1 Gate:</t>
-  </si>
-  <si>
-    <t>169.254.1.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobinil Dina Farms </t>
-  </si>
-  <si>
-    <t>169.254.1.26</t>
-  </si>
-  <si>
-    <t>Mobinil Dina Farms</t>
-  </si>
-  <si>
-    <t>169.254.1.29</t>
-  </si>
-  <si>
-    <t>4117 Ant. 1</t>
-  </si>
-  <si>
-    <t>169.254.1.30</t>
-  </si>
-  <si>
-    <t>4117 Ant. 3</t>
-  </si>
-  <si>
-    <t>169.254.1.34</t>
-  </si>
-  <si>
-    <t>Sadat 1 Gate</t>
-  </si>
-  <si>
-    <t>169.254.1.33</t>
-  </si>
-  <si>
-    <t>Sadat 2 Gate:</t>
-  </si>
-  <si>
-    <t>4117 Ant. 4</t>
-  </si>
-  <si>
-    <t>169.254.1.38</t>
-  </si>
-  <si>
-    <t>Sadat 2 Gate</t>
-  </si>
-  <si>
-    <t>169.254.1.37</t>
-  </si>
-  <si>
-    <t>Al Alamin Gate:</t>
-  </si>
-  <si>
-    <t>4117 Ant. 5</t>
-  </si>
-  <si>
-    <t>169.254.1.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V 4263 </t>
-  </si>
-  <si>
-    <t>169.254.1.45</t>
-  </si>
-  <si>
-    <t>169.254.1.48</t>
-  </si>
-  <si>
-    <t>Al Alamin Gate</t>
-  </si>
-  <si>
-    <t>169.254.1.47</t>
-  </si>
-  <si>
-    <t>Eqlimy Gate:</t>
-  </si>
-  <si>
-    <t>169.254.1.82</t>
-  </si>
-  <si>
-    <t>Eqlimy Gate</t>
-  </si>
-  <si>
-    <t>169.254.1.81</t>
-  </si>
-  <si>
-    <t>Alexandria Gate:</t>
-  </si>
-  <si>
-    <t>169.254.1.52</t>
-  </si>
-  <si>
-    <t>V 2299</t>
-  </si>
-  <si>
-    <t>169.254.1.51</t>
-  </si>
-  <si>
-    <t>169.254.1.59</t>
-  </si>
-  <si>
-    <t>Mobinil Nubariya Rd</t>
-  </si>
-  <si>
-    <t>169.254.1.60</t>
-  </si>
-  <si>
-    <t>169.254.1.70</t>
-  </si>
-  <si>
-    <t>V 4414</t>
-  </si>
-  <si>
-    <t>169.254.1.69</t>
-  </si>
-  <si>
-    <t>169.254.1.75</t>
-  </si>
-  <si>
-    <t>V 2837</t>
-  </si>
-  <si>
-    <t>169.254.1.76</t>
-  </si>
-  <si>
-    <t>169.254.1.79</t>
-  </si>
-  <si>
-    <t>Alexandria Gate</t>
-  </si>
-  <si>
-    <t>169.254.1.80</t>
+    <t>10.0.10.101</t>
+  </si>
+  <si>
+    <t>10.0.10.102</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>10.0.10.103</t>
+  </si>
+  <si>
+    <t>10.0.10.106</t>
+  </si>
+  <si>
+    <t>Degla</t>
+  </si>
+  <si>
+    <t>10.0.10.107</t>
+  </si>
+  <si>
+    <t>Cairo Lab From 0929 to 0929:</t>
+  </si>
+  <si>
+    <t>192.168.1.108</t>
+  </si>
+  <si>
+    <t>Cairo Lab</t>
+  </si>
+  <si>
+    <t>192.168.1.109</t>
+  </si>
+  <si>
+    <t>Cairo From 0929 to 0929:</t>
+  </si>
+  <si>
+    <t>10.0.10.104</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>10.0.10.105</t>
+  </si>
+  <si>
+    <t>Tohamy From 0929 to 0929:</t>
+  </si>
+  <si>
+    <t>10.0.10.110</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>10.0.10.111</t>
+  </si>
+  <si>
+    <t>10.0.10.112</t>
+  </si>
+  <si>
+    <t>Tohamy</t>
+  </si>
+  <si>
+    <t>10.0.10.113</t>
+  </si>
+  <si>
+    <t>Gendaly 1 From 0929 to 0929:</t>
+  </si>
+  <si>
+    <t>10.0.10.114</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>10.0.10.115</t>
+  </si>
+  <si>
+    <t>10.0.10.116</t>
+  </si>
+  <si>
+    <t>Gendaly 1</t>
+  </si>
+  <si>
+    <t>10.0.10.117</t>
+  </si>
+  <si>
+    <t>Kilo 61 From 0929 to 0929:</t>
+  </si>
+  <si>
+    <t>10.0.10.118</t>
+  </si>
+  <si>
+    <t>Vodafone 4253</t>
+  </si>
+  <si>
+    <t>10.0.10.119</t>
+  </si>
+  <si>
+    <t>10.0.10.140</t>
+  </si>
+  <si>
+    <t>Vodafone 4200</t>
+  </si>
+  <si>
+    <t>10.0.10.141</t>
+  </si>
+  <si>
+    <t>10.0.10.142</t>
+  </si>
+  <si>
+    <t>Kilo 61</t>
+  </si>
+  <si>
+    <t>10.0.10.143</t>
+  </si>
+  <si>
+    <t>Kilo 59 From 0929 to 0929:</t>
+  </si>
+  <si>
+    <t>10.0.10.137</t>
+  </si>
+  <si>
+    <t>Kilo 59</t>
+  </si>
+  <si>
+    <t>10.0.10.155</t>
+  </si>
+  <si>
+    <t>Al Mosheer From 0929 to 0929:</t>
+  </si>
+  <si>
+    <t>10.0.10.120</t>
+  </si>
+  <si>
+    <t>Vodafone 4254</t>
+  </si>
+  <si>
+    <t>10.0.10.152</t>
+  </si>
+  <si>
+    <t>10.0.10.122</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>10.0.10.123</t>
+  </si>
+  <si>
+    <t>10.0.10.126</t>
+  </si>
+  <si>
+    <t>Al Mosheer</t>
+  </si>
+  <si>
+    <t>10.0.10.127</t>
+  </si>
+  <si>
+    <t>Sokhna From 0929 to 0929:</t>
+  </si>
+  <si>
+    <t>10.0.10.128</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>10.0.10.129</t>
+  </si>
+  <si>
+    <t>10.0.10.130</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>10.0.10.131</t>
+  </si>
+  <si>
+    <t>10.0.10.132</t>
+  </si>
+  <si>
+    <t>Sokhna</t>
+  </si>
+  <si>
+    <t>10.0.10.133</t>
+  </si>
+  <si>
+    <t>Al Galalh From 0929 to 0929:</t>
+  </si>
+  <si>
+    <t>10.10.10.51</t>
+  </si>
+  <si>
+    <t>Al Galalh</t>
+  </si>
+  <si>
+    <t>10.10.10.22</t>
+  </si>
+  <si>
+    <t>Hgoul 3 From 0929 to 0929:</t>
+  </si>
+  <si>
+    <t>10.0.10.134</t>
+  </si>
+  <si>
+    <t>Vodafone 4256</t>
+  </si>
+  <si>
+    <t>10.0.10.135</t>
+  </si>
+  <si>
+    <t>10.0.10.138</t>
+  </si>
+  <si>
+    <t>Hgoul 3</t>
+  </si>
+  <si>
+    <t>10.0.10.139</t>
+  </si>
+  <si>
+    <t>Al Seneya From 0929 to 0929:</t>
+  </si>
+  <si>
+    <t>10.0.10.136</t>
+  </si>
+  <si>
+    <t>Al Seneya</t>
+  </si>
+  <si>
+    <t>10.0.10.177</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -648,7 +633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,22 +690,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="B4" s="4">
-        <v>25.95</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4">
-        <v>25.95</v>
+        <v>100</v>
       </c>
       <c r="D4" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="E4" s="4">
         <v>100</v>
       </c>
       <c r="F4" s="4">
-        <v>98.47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -771,22 +756,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="B10" s="4">
-        <v>25.95</v>
+        <v>100</v>
       </c>
       <c r="C10" s="4">
-        <v>25.95</v>
+        <v>100</v>
       </c>
       <c r="D10" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="E10" s="4">
-        <v>26.72</v>
+        <v>0</v>
       </c>
       <c r="F10" s="4">
-        <v>26.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -837,22 +822,22 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="B16" s="4">
-        <v>25.95</v>
+        <v>100</v>
       </c>
       <c r="C16" s="4">
-        <v>25.95</v>
+        <v>100</v>
       </c>
       <c r="D16" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="E16" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="F16" s="4">
-        <v>26.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -878,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,95 +880,71 @@
         <v>7</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="B22" s="4">
-        <v>25.95</v>
+        <v>100</v>
       </c>
       <c r="C22" s="4">
-        <v>25.95</v>
+        <v>100</v>
       </c>
       <c r="D22" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="E22" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="F22" s="4">
-        <v>26.34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B26" s="4">
-        <v>26.34</v>
-      </c>
-      <c r="C26" s="4">
-        <v>100</v>
-      </c>
-      <c r="D26" s="4">
-        <v>95.8</v>
-      </c>
-      <c r="E26" s="4">
-        <v>94.66</v>
-      </c>
-      <c r="F26" s="4">
-        <v>94.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3"/>
     </row>
@@ -1004,7 +965,7 @@
         <v>6</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1021,65 +982,77 @@
         <v>7</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>25.95</v>
+        <v>100</v>
       </c>
       <c r="C32" s="4">
-        <v>25.95</v>
+        <v>100</v>
       </c>
       <c r="D32" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="E32" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="F32" s="4">
-        <v>26.34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>96.56</v>
+        <v>100</v>
       </c>
       <c r="B36" s="4">
         <v>100</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="C36" s="4">
+        <v>100</v>
+      </c>
+      <c r="D36" s="4">
+        <v>100</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
@@ -1106,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1123,765 +1096,1420 @@
         <v>7</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="B42" s="4">
-        <v>25.95</v>
+        <v>100</v>
       </c>
       <c r="C42" s="4">
-        <v>25.95</v>
+        <v>100</v>
       </c>
       <c r="D42" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="E42" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="F42" s="4">
-        <v>22.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="E44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>25.95</v>
+        <v>100</v>
       </c>
       <c r="B46" s="4">
-        <v>25.95</v>
+        <v>100</v>
       </c>
       <c r="C46" s="4">
-        <v>96.56</v>
+        <v>100</v>
       </c>
       <c r="D46" s="4">
-        <v>90.46</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>0</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>26.72</v>
-      </c>
-      <c r="B52" s="4">
-        <v>25.95</v>
-      </c>
-      <c r="C52" s="4">
-        <v>25.95</v>
-      </c>
-      <c r="D52" s="4">
-        <v>26.72</v>
-      </c>
-      <c r="E52" s="4">
-        <v>26.72</v>
-      </c>
-      <c r="F52" s="4">
-        <v>26.34</v>
-      </c>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>26.34</v>
+        <v>100</v>
       </c>
       <c r="B56" s="4">
-        <v>26.34</v>
+        <v>100</v>
       </c>
       <c r="C56" s="4">
-        <v>99.24</v>
+        <v>100</v>
       </c>
       <c r="D56" s="4">
-        <v>96.56</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="59" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="E56" s="4">
+        <v>100</v>
+      </c>
+      <c r="F56" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="4" t="s">
+      <c r="A60" s="4">
+        <v>100</v>
+      </c>
+      <c r="B60" s="4">
+        <v>100</v>
+      </c>
+      <c r="C60" s="4">
+        <v>100</v>
+      </c>
+      <c r="D60" s="4">
+        <v>100</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="4" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>26.72</v>
-      </c>
-      <c r="B62" s="4">
-        <v>25.95</v>
-      </c>
-      <c r="C62" s="4">
-        <v>25.95</v>
-      </c>
-      <c r="D62" s="4">
-        <v>26.72</v>
-      </c>
-      <c r="E62" s="4">
-        <v>26.72</v>
-      </c>
-      <c r="F62" s="4">
-        <v>26.34</v>
-      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A64" s="4">
+        <v>0</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    <row r="67" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>100</v>
+      </c>
+      <c r="B70" s="4">
+        <v>100</v>
+      </c>
+      <c r="C70" s="4">
+        <v>100</v>
+      </c>
+      <c r="D70" s="4">
+        <v>100</v>
+      </c>
+      <c r="E70" s="4">
+        <v>100</v>
+      </c>
+      <c r="F70" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="F73" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="4" t="s">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>100</v>
+      </c>
+      <c r="B74" s="4">
+        <v>100</v>
+      </c>
+      <c r="C74" s="4">
+        <v>100</v>
+      </c>
+      <c r="D74" s="4">
+        <v>100</v>
+      </c>
+      <c r="E74" s="4">
+        <v>100</v>
+      </c>
+      <c r="F74" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>100</v>
+      </c>
+      <c r="B78" s="4">
+        <v>100</v>
+      </c>
+      <c r="C78" s="4">
+        <v>100</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="81" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A81" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>26.34</v>
-      </c>
-      <c r="B66" s="4">
-        <v>26.34</v>
-      </c>
-      <c r="C66" s="4">
-        <v>98.47</v>
-      </c>
-      <c r="D66" s="4">
-        <v>100</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="69" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A69" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="F82" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>26.72</v>
-      </c>
-      <c r="B72" s="4">
-        <v>25.95</v>
-      </c>
-      <c r="C72" s="4">
-        <v>25.95</v>
-      </c>
-      <c r="D72" s="4">
-        <v>26.72</v>
-      </c>
-      <c r="E72" s="4">
-        <v>26.72</v>
-      </c>
-      <c r="F72" s="4">
-        <v>26.34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B74" s="4" t="s">
+      <c r="E83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>100</v>
+      </c>
+      <c r="B84" s="4">
+        <v>100</v>
+      </c>
+      <c r="C84" s="4">
+        <v>100</v>
+      </c>
+      <c r="D84" s="4">
+        <v>100</v>
+      </c>
+      <c r="E84" s="4">
+        <v>100</v>
+      </c>
+      <c r="F84" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="F87" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
-        <v>26.34</v>
-      </c>
-      <c r="B76" s="4">
-        <v>26.34</v>
-      </c>
-      <c r="C76" s="4">
-        <v>26.34</v>
-      </c>
-      <c r="D76" s="4">
-        <v>26.72</v>
-      </c>
-      <c r="E76" s="4">
-        <v>26.34</v>
-      </c>
-      <c r="F76" s="4">
-        <v>26.34</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A79" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
-        <v>26.72</v>
-      </c>
-      <c r="B82" s="4">
-        <v>25.95</v>
-      </c>
-      <c r="C82" s="4">
-        <v>25.95</v>
-      </c>
-      <c r="D82" s="4">
-        <v>26.72</v>
-      </c>
-      <c r="E82" s="4">
-        <v>26.72</v>
-      </c>
-      <c r="F82" s="4">
-        <v>26.34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
-        <v>98.47</v>
-      </c>
-      <c r="B86" s="4">
-        <v>96.18</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="89" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A89" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B89" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>100</v>
+      </c>
+      <c r="B88" s="4">
+        <v>100</v>
+      </c>
+      <c r="C88" s="4">
+        <v>100</v>
+      </c>
+      <c r="D88" s="4">
+        <v>100</v>
+      </c>
+      <c r="E88" s="4">
+        <v>100</v>
+      </c>
+      <c r="F88" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="B92" s="4">
-        <v>25.95</v>
+        <v>100</v>
       </c>
       <c r="C92" s="4">
-        <v>25.95</v>
+        <v>100</v>
       </c>
       <c r="D92" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="E92" s="4">
-        <v>26.72</v>
+        <v>100</v>
       </c>
       <c r="F92" s="4">
-        <v>26.34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>26.34</v>
+        <v>100</v>
       </c>
       <c r="B96" s="4">
-        <v>26.34</v>
-      </c>
-      <c r="C96" s="4">
-        <v>26.34</v>
-      </c>
-      <c r="D96" s="4">
-        <v>26.72</v>
-      </c>
-      <c r="E96" s="4">
-        <v>26.34</v>
-      </c>
-      <c r="F96" s="4">
+        <v>100</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+    </row>
+    <row r="99" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A99" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>100</v>
+      </c>
+      <c r="B102" s="4">
+        <v>100</v>
+      </c>
+      <c r="C102" s="4">
+        <v>100</v>
+      </c>
+      <c r="D102" s="4">
+        <v>100</v>
+      </c>
+      <c r="E102" s="4">
+        <v>100</v>
+      </c>
+      <c r="F102" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>100</v>
+      </c>
+      <c r="B106" s="4">
+        <v>100</v>
+      </c>
+      <c r="C106" s="4">
+        <v>100</v>
+      </c>
+      <c r="D106" s="4">
+        <v>100</v>
+      </c>
+      <c r="E106" s="4">
+        <v>100</v>
+      </c>
+      <c r="F106" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>100</v>
+      </c>
+      <c r="B110" s="4">
+        <v>100</v>
+      </c>
+      <c r="C110" s="4">
+        <v>100</v>
+      </c>
+      <c r="D110" s="4">
+        <v>100</v>
+      </c>
+      <c r="E110" s="4">
+        <v>100</v>
+      </c>
+      <c r="F110" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>100</v>
+      </c>
+      <c r="B114" s="4">
+        <v>100</v>
+      </c>
+      <c r="C114" s="4">
+        <v>100</v>
+      </c>
+      <c r="D114" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="117" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A117" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>100</v>
+      </c>
+      <c r="B120" s="4">
+        <v>100</v>
+      </c>
+      <c r="C120" s="4">
+        <v>100</v>
+      </c>
+      <c r="D120" s="4">
+        <v>100</v>
+      </c>
+      <c r="E120" s="4">
+        <v>100</v>
+      </c>
+      <c r="F120" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>100</v>
+      </c>
+      <c r="B124" s="4">
+        <v>100</v>
+      </c>
+      <c r="C124" s="4">
+        <v>100</v>
+      </c>
+      <c r="D124" s="4">
+        <v>100</v>
+      </c>
+      <c r="E124" s="4">
+        <v>100</v>
+      </c>
+      <c r="F124" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>100</v>
+      </c>
+      <c r="B128" s="4">
+        <v>100</v>
+      </c>
+      <c r="C128" s="4">
+        <v>100</v>
+      </c>
+      <c r="D128" s="4">
+        <v>100</v>
+      </c>
+      <c r="E128" s="4">
+        <v>100</v>
+      </c>
+      <c r="F128" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="E131" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D98" s="4" t="s">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>100</v>
+      </c>
+      <c r="B132" s="4">
+        <v>100</v>
+      </c>
+      <c r="C132" s="4">
+        <v>60</v>
+      </c>
+      <c r="D132" s="4">
+        <v>40</v>
+      </c>
+      <c r="E132" s="4">
+        <v>0</v>
+      </c>
+      <c r="F132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A135" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>100</v>
+      </c>
+      <c r="B138" s="4">
+        <v>100</v>
+      </c>
+      <c r="C138" s="4">
+        <v>100</v>
+      </c>
+      <c r="D138" s="4">
+        <v>100</v>
+      </c>
+      <c r="E138" s="4">
+        <v>100</v>
+      </c>
+      <c r="F138" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>100</v>
+      </c>
+      <c r="B142" s="4">
+        <v>100</v>
+      </c>
+      <c r="C142" s="4">
+        <v>100</v>
+      </c>
+      <c r="D142" s="4">
+        <v>100</v>
+      </c>
+      <c r="E142" s="4">
+        <v>100</v>
+      </c>
+      <c r="F142" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>100</v>
+      </c>
+      <c r="B146" s="4">
+        <v>100</v>
+      </c>
+      <c r="C146" s="4">
+        <v>100</v>
+      </c>
+      <c r="D146" s="4">
+        <v>100</v>
+      </c>
+      <c r="E146" s="4">
+        <v>100</v>
+      </c>
+      <c r="F146" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F148" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C99" s="4" t="s">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E149" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="F149" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E99" s="4" t="s">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>100</v>
+      </c>
+      <c r="B150" s="4">
+        <v>100</v>
+      </c>
+      <c r="C150" s="4">
+        <v>60</v>
+      </c>
+      <c r="D150" s="4">
+        <v>40</v>
+      </c>
+      <c r="E150" s="4">
+        <v>0</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
-        <v>0</v>
-      </c>
-      <c r="B100" s="4">
-        <v>0</v>
-      </c>
-      <c r="C100" s="4">
-        <v>0</v>
-      </c>
-      <c r="D100" s="4">
-        <v>0</v>
-      </c>
-      <c r="E100" s="4">
-        <v>0</v>
-      </c>
-      <c r="F100" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
-        <v>0</v>
-      </c>
-      <c r="B104" s="4">
-        <v>0</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
+  <mergeCells count="12">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A13:B13"/>
@@ -2106,6 +2734,8 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:F32">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2138,8 +2768,6 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:F32">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2156,6 +2784,8 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:F36">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -2189,7 +2819,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:F36">
+  <conditionalFormatting sqref="A42:F42">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -2206,8 +2836,6 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:F42">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -2240,6 +2868,8 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:F46">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -2256,8 +2886,6 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:F46">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -2291,7 +2919,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:F52">
+  <conditionalFormatting sqref="A50:F50">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -2308,6 +2936,8 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:F56">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -2340,8 +2970,6 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:F56">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -2358,6 +2986,8 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:F60">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -2374,8 +3004,6 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:F62">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -2408,6 +3036,8 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:F64">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -2425,7 +3055,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:F66">
+  <conditionalFormatting sqref="A70:F70">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -2458,8 +3088,6 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:F72">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -2476,6 +3104,8 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74:F74">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -2508,8 +3138,6 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76:F76">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -2526,6 +3154,8 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78:F78">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -2559,7 +3189,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:F82">
+  <conditionalFormatting sqref="A84:F84">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -2609,7 +3239,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86:F86">
+  <conditionalFormatting sqref="A88:F88">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -2626,40 +3256,40 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:F92">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -2676,40 +3306,40 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:F96">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -2727,7 +3357,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100:F100">
+  <conditionalFormatting sqref="A102:F102">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -2736,6 +3366,8 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:F102">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -2744,6 +3376,8 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:F102">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -2752,6 +3386,8 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:F102">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -2760,6 +3396,8 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:F102">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
@@ -2768,6 +3406,8 @@
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:F102">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -2777,7 +3417,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104:F104">
+  <conditionalFormatting sqref="A106:F106">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -2787,7 +3427,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104:F104">
+  <conditionalFormatting sqref="A106:F106">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -2797,7 +3437,627 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A106:F106">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106:F106">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106:F106">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106:F106">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:F110">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:F110">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:F110">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:F110">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:F110">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:F110">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114:F114">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114:F114">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114:F114">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114:F114">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120:F120">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120:F120">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120:F120">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120:F120">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120:F120">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120:F120">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:F124">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:F124">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:F124">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:F124">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:F124">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:F124">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:F128">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:F128">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:F128">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:F128">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:F128">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:F128">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132:F132">
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132:F132">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132:F132">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132:F132">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132:F132">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132:F132">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:F138">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:F138">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:F138">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:F138">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:F138">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:F138">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142:F142">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142:F142">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142:F142">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142:F142">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142:F142">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142:F142">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146:F146">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146:F146">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146:F146">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146:F146">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146:F146">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146:F146">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:F150">
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:F150">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:F150">
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:F150">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:F150">
+    <cfRule type="colorScale" priority="169">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:F150">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00FF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WatanyaPingTester/bin/Debug/res/alexColorReport.xlsx
+++ b/WatanyaPingTester/bin/Debug/res/alexColorReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fahim\Pingo\WatanyaPingTester\bin\Debug\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Fahim\C#\New folder\Pingo\WatanyaPingTester\bin\Debug\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="9900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2895" windowHeight="720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,8 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="89">
   <si>
-    <t>From: 0716 To: 0746</t>
+    <t>From: 23/01/2018 at 1232
+To: 23/01/2018 at 1247</t>
   </si>
   <si>
     <t>El Sheikh Zaid Gate:</t>
@@ -357,13 +358,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -654,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,1245 +668,1249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="B5" s="5">
-        <v>99.74</v>
-      </c>
-      <c r="C5" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="D5" s="5">
-        <v>99.23</v>
-      </c>
-      <c r="E5" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="F5" s="5">
-        <v>99.91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="B6" s="6">
+        <v>99.5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>99.33</v>
+      </c>
+      <c r="D6" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="E6" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="F6" s="6">
+        <v>99.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="B11" s="5">
-        <v>99.74</v>
-      </c>
-      <c r="C11" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="D11" s="5">
-        <v>99.23</v>
-      </c>
-      <c r="E11" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="F11" s="5">
-        <v>99.91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="B12" s="6">
+        <v>99.5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>99.33</v>
+      </c>
+      <c r="D12" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="E12" s="6">
+        <v>99.33</v>
+      </c>
+      <c r="F12" s="6">
+        <v>99.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="B17" s="5">
-        <v>99.74</v>
-      </c>
-      <c r="C17" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="D17" s="5">
-        <v>99.23</v>
-      </c>
-      <c r="E17" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="F17" s="5">
-        <v>85.41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="B18" s="6">
+        <v>99.5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>99.33</v>
+      </c>
+      <c r="D18" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="E18" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="F18" s="6">
+        <v>82.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="B23" s="5">
-        <v>99.74</v>
-      </c>
-      <c r="C23" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="D23" s="5">
-        <v>99.23</v>
-      </c>
-      <c r="E23" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="F23" s="5">
-        <v>85.41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="B24" s="6">
+        <v>99.5</v>
+      </c>
+      <c r="C24" s="6">
+        <v>99.33</v>
+      </c>
+      <c r="D24" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="E24" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="F24" s="6">
+        <v>82.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F26" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F27" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>99.23</v>
-      </c>
-      <c r="B27" s="5">
-        <v>99.23</v>
-      </c>
-      <c r="C27" s="5">
-        <v>98.54</v>
-      </c>
-      <c r="D27" s="5">
-        <v>73.13</v>
-      </c>
-      <c r="E27" s="5">
-        <v>66.52</v>
-      </c>
-      <c r="F27" s="5">
-        <v>65.319999999999993</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>99</v>
+      </c>
+      <c r="B28" s="6">
+        <v>99.33</v>
+      </c>
+      <c r="C28" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="D28" s="6">
+        <v>77.37</v>
+      </c>
+      <c r="E28" s="6">
+        <v>73.88</v>
+      </c>
+      <c r="F28" s="6">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F32" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F33" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="B33" s="5">
-        <v>99.74</v>
-      </c>
-      <c r="C33" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="D33" s="5">
-        <v>99.23</v>
-      </c>
-      <c r="E33" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="F33" s="5">
-        <v>85.41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="B34" s="6">
+        <v>99.5</v>
+      </c>
+      <c r="C34" s="6">
+        <v>99.33</v>
+      </c>
+      <c r="D34" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="E34" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="F34" s="6">
+        <v>82.36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>99.06</v>
-      </c>
-      <c r="B37" s="5">
-        <v>99.57</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A40" s="4" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>99.5</v>
+      </c>
+      <c r="B38" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="41" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D42" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E42" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F42" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E43" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F43" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="B43" s="5">
-        <v>99.74</v>
-      </c>
-      <c r="C43" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="D43" s="5">
-        <v>99.23</v>
-      </c>
-      <c r="E43" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="F43" s="5">
-        <v>99.91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="B44" s="6">
+        <v>99.5</v>
+      </c>
+      <c r="C44" s="6">
+        <v>99.33</v>
+      </c>
+      <c r="D44" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="E44" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="F44" s="6">
+        <v>97.67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D46" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="B47" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="C47" s="5">
-        <v>94.42</v>
-      </c>
-      <c r="D47" s="5">
-        <v>25.92</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="50" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A50" s="4" t="s">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>88.02</v>
+      </c>
+      <c r="B48" s="6">
+        <v>0</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="51" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A51" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F52" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D53" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E53" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F53" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="B53" s="5">
-        <v>99.74</v>
-      </c>
-      <c r="C53" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="D53" s="5">
-        <v>99.23</v>
-      </c>
-      <c r="E53" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="F53" s="5">
-        <v>99.91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="B54" s="6">
+        <v>99.5</v>
+      </c>
+      <c r="C54" s="6">
+        <v>99.33</v>
+      </c>
+      <c r="D54" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="E54" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="F54" s="6">
+        <v>99.33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B57" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>99.14</v>
-      </c>
-      <c r="B57" s="5">
-        <v>99.66</v>
-      </c>
-      <c r="C57" s="5">
-        <v>99.31</v>
-      </c>
-      <c r="D57" s="5">
-        <v>99.4</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="60" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A60" s="4" t="s">
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>94.51</v>
+      </c>
+      <c r="B58" s="6">
+        <v>94.84</v>
+      </c>
+      <c r="C58" s="6">
+        <v>95.51</v>
+      </c>
+      <c r="D58" s="6">
+        <v>95.01</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="61" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D62" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E62" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F62" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D63" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E63" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F63" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="B63" s="5">
-        <v>99.74</v>
-      </c>
-      <c r="C63" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="D63" s="5">
-        <v>99.23</v>
-      </c>
-      <c r="E63" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="F63" s="5">
-        <v>99.91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="B64" s="6">
+        <v>99.5</v>
+      </c>
+      <c r="C64" s="6">
+        <v>99.33</v>
+      </c>
+      <c r="D64" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="E64" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="F64" s="6">
+        <v>99.33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B66" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D66" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B67" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D67" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
-        <v>99.14</v>
-      </c>
-      <c r="B67" s="5">
-        <v>99.66</v>
-      </c>
-      <c r="C67" s="5">
-        <v>99.23</v>
-      </c>
-      <c r="D67" s="5">
-        <v>99.48</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="70" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A70" s="4" t="s">
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>94.51</v>
+      </c>
+      <c r="B68" s="6">
+        <v>94.84</v>
+      </c>
+      <c r="C68" s="6">
+        <v>92.68</v>
+      </c>
+      <c r="D68" s="6">
+        <v>93.01</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="71" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A71" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D72" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E72" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F72" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D73" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E73" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F73" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="B73" s="5">
-        <v>99.74</v>
-      </c>
-      <c r="C73" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="D73" s="5">
-        <v>99.23</v>
-      </c>
-      <c r="E73" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="F73" s="5">
-        <v>99.91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="B74" s="6">
+        <v>99.5</v>
+      </c>
+      <c r="C74" s="6">
+        <v>99.33</v>
+      </c>
+      <c r="D74" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="E74" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="F74" s="6">
+        <v>99.33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D76" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E76" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F76" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B77" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D77" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E77" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F77" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>99.14</v>
-      </c>
-      <c r="B77" s="5">
-        <v>99.66</v>
-      </c>
-      <c r="C77" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="D77" s="5">
-        <v>99.31</v>
-      </c>
-      <c r="E77" s="5">
-        <v>99.57</v>
-      </c>
-      <c r="F77" s="5">
-        <v>99.31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A80" s="4" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>94.51</v>
+      </c>
+      <c r="B78" s="6">
+        <v>94.84</v>
+      </c>
+      <c r="C78" s="6">
+        <v>92.85</v>
+      </c>
+      <c r="D78" s="6">
+        <v>94.34</v>
+      </c>
+      <c r="E78" s="6">
+        <v>93.51</v>
+      </c>
+      <c r="F78" s="6">
+        <v>94.68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B82" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C82" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F82" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B83" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C83" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E83" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F83" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="B83" s="5">
-        <v>99.74</v>
-      </c>
-      <c r="C83" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="D83" s="5">
-        <v>99.23</v>
-      </c>
-      <c r="E83" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="F83" s="5">
-        <v>99.91</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="B84" s="6">
+        <v>99.5</v>
+      </c>
+      <c r="C84" s="6">
+        <v>99.33</v>
+      </c>
+      <c r="D84" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="E84" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="F84" s="6">
+        <v>99.33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B86" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B87" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="B87" s="5">
-        <v>99.23</v>
-      </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="90" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A90" s="4" t="s">
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>94.34</v>
+      </c>
+      <c r="B88" s="6">
+        <v>95.84</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="91" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A91" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B90" s="4"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C92" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D92" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E92" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F92" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B93" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C93" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E93" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F93" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="B93" s="5">
-        <v>99.74</v>
-      </c>
-      <c r="C93" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="D93" s="5">
-        <v>99.23</v>
-      </c>
-      <c r="E93" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="F93" s="5">
-        <v>99.91</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="B94" s="6">
+        <v>99.5</v>
+      </c>
+      <c r="C94" s="6">
+        <v>99.33</v>
+      </c>
+      <c r="D94" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="E94" s="6">
+        <v>99.83</v>
+      </c>
+      <c r="F94" s="6">
+        <v>99.33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B96" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C96" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D96" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E96" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F96" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B97" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C97" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D97" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E97" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F97" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
-        <v>99.14</v>
-      </c>
-      <c r="B97" s="5">
-        <v>99.66</v>
-      </c>
-      <c r="C97" s="5">
-        <v>99.91</v>
-      </c>
-      <c r="D97" s="5">
-        <v>99.31</v>
-      </c>
-      <c r="E97" s="5">
-        <v>90.9</v>
-      </c>
-      <c r="F97" s="5">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>94.51</v>
+      </c>
+      <c r="B98" s="6">
+        <v>94.84</v>
+      </c>
+      <c r="C98" s="6">
+        <v>92.85</v>
+      </c>
+      <c r="D98" s="6">
+        <v>94.34</v>
+      </c>
+      <c r="E98" s="6">
+        <v>86.86</v>
+      </c>
+      <c r="F98" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B100" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C100" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D100" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E100" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F100" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C101" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D101" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E101" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F101" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
         <v>0</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B102" s="6">
         <v>0</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C102" s="6">
         <v>0</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D102" s="6">
         <v>0</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E102" s="6">
         <v>0</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F102" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B104" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B105" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
         <v>0</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B106" s="6">
         <v>0</v>
       </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A31:B31"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:F5">
+  <conditionalFormatting sqref="A6:F6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1952,7 +1960,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:F11">
+  <conditionalFormatting sqref="A12:F12">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2002,7 +2010,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:F17">
+  <conditionalFormatting sqref="A18:F18">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2052,7 +2060,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:F23">
+  <conditionalFormatting sqref="A24:F24">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2102,7 +2110,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:F27">
+  <conditionalFormatting sqref="A28:F28">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2152,7 +2160,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:F33">
+  <conditionalFormatting sqref="A34:F34">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2202,7 +2210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:F37">
+  <conditionalFormatting sqref="A38:F38">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -2220,7 +2228,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:F43">
+  <conditionalFormatting sqref="A44:F44">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -2270,7 +2278,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:F47">
+  <conditionalFormatting sqref="A48:F48">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -2304,7 +2312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:F53">
+  <conditionalFormatting sqref="A54:F54">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -2354,7 +2362,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:F57">
+  <conditionalFormatting sqref="A58:F58">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -2388,7 +2396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:F63">
+  <conditionalFormatting sqref="A64:F64">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -2438,7 +2446,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:F67">
+  <conditionalFormatting sqref="A68:F68">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -2472,7 +2480,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:F73">
+  <conditionalFormatting sqref="A74:F74">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -2522,7 +2530,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:F77">
+  <conditionalFormatting sqref="A78:F78">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -2572,7 +2580,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83:F83">
+  <conditionalFormatting sqref="A84:F84">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -2622,7 +2630,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87:F87">
+  <conditionalFormatting sqref="A88:F88">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -2640,7 +2648,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93:F93">
+  <conditionalFormatting sqref="A94:F94">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -2690,7 +2698,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A97:F97">
+  <conditionalFormatting sqref="A98:F98">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -2740,7 +2748,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101:F101">
+  <conditionalFormatting sqref="A102:F102">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -2790,7 +2798,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105:F105">
+  <conditionalFormatting sqref="A106:F106">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -2800,7 +2808,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105:F105">
+  <conditionalFormatting sqref="A106:F106">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -2811,6 +2819,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WatanyaPingTester/bin/Debug/res/alexColorReport.xlsx
+++ b/WatanyaPingTester/bin/Debug/res/alexColorReport.xlsx
@@ -26,8 +26,8 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="89">
   <si>
-    <t>From: 23/01/2018 at 1232
-To: 23/01/2018 at 1247</t>
+    <t>From: 28/01/2018 at 1745
+To: 28/01/2018 at 1840</t>
   </si>
   <si>
     <t>El Sheikh Zaid Gate:</t>
@@ -725,22 +725,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>99.83</v>
+        <v>99.67</v>
       </c>
       <c r="B6" s="6">
-        <v>99.5</v>
+        <v>99.13</v>
       </c>
       <c r="C6" s="6">
-        <v>99.33</v>
+        <v>99.56</v>
       </c>
       <c r="D6" s="6">
-        <v>99.83</v>
+        <v>99.34</v>
       </c>
       <c r="E6" s="6">
-        <v>99.83</v>
+        <v>99.29</v>
       </c>
       <c r="F6" s="6">
-        <v>99.83</v>
+        <v>96.89</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -791,22 +791,22 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>99.83</v>
+        <v>99.67</v>
       </c>
       <c r="B12" s="6">
-        <v>99.5</v>
+        <v>99.13</v>
       </c>
       <c r="C12" s="6">
-        <v>99.33</v>
+        <v>99.56</v>
       </c>
       <c r="D12" s="6">
-        <v>99.83</v>
+        <v>99.34</v>
       </c>
       <c r="E12" s="6">
-        <v>99.33</v>
+        <v>99.56</v>
       </c>
       <c r="F12" s="6">
-        <v>99.83</v>
+        <v>99.56</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -857,22 +857,22 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>99.83</v>
+        <v>99.67</v>
       </c>
       <c r="B18" s="6">
-        <v>99.5</v>
+        <v>99.13</v>
       </c>
       <c r="C18" s="6">
-        <v>99.33</v>
+        <v>99.56</v>
       </c>
       <c r="D18" s="6">
-        <v>99.83</v>
+        <v>99.34</v>
       </c>
       <c r="E18" s="6">
-        <v>99.83</v>
+        <v>99.56</v>
       </c>
       <c r="F18" s="6">
-        <v>82.36</v>
+        <v>90.82</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -923,22 +923,22 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>99.83</v>
+        <v>99.67</v>
       </c>
       <c r="B24" s="6">
-        <v>99.5</v>
+        <v>99.13</v>
       </c>
       <c r="C24" s="6">
-        <v>99.33</v>
+        <v>99.56</v>
       </c>
       <c r="D24" s="6">
-        <v>99.83</v>
+        <v>99.34</v>
       </c>
       <c r="E24" s="6">
-        <v>99.83</v>
+        <v>99.56</v>
       </c>
       <c r="F24" s="6">
-        <v>82.36</v>
+        <v>90.82</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,22 +983,22 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>99</v>
+        <v>99.4</v>
       </c>
       <c r="B28" s="6">
-        <v>99.33</v>
+        <v>97.87</v>
       </c>
       <c r="C28" s="6">
-        <v>99.83</v>
+        <v>97.49</v>
       </c>
       <c r="D28" s="6">
-        <v>77.37</v>
+        <v>93.45</v>
       </c>
       <c r="E28" s="6">
-        <v>73.88</v>
+        <v>91.97</v>
       </c>
       <c r="F28" s="6">
-        <v>71.55</v>
+        <v>92.79</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -1049,22 +1049,22 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>99.83</v>
+        <v>99.67</v>
       </c>
       <c r="B34" s="6">
-        <v>99.5</v>
+        <v>99.13</v>
       </c>
       <c r="C34" s="6">
-        <v>99.33</v>
+        <v>99.56</v>
       </c>
       <c r="D34" s="6">
-        <v>99.83</v>
+        <v>99.34</v>
       </c>
       <c r="E34" s="6">
-        <v>99.83</v>
+        <v>99.56</v>
       </c>
       <c r="F34" s="6">
-        <v>82.36</v>
+        <v>90.82</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,10 +1093,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>99.5</v>
+        <v>95.85</v>
       </c>
       <c r="B38" s="6">
-        <v>99.83</v>
+        <v>99.4</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1151,22 +1151,22 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>99.83</v>
+        <v>99.67</v>
       </c>
       <c r="B44" s="6">
-        <v>99.5</v>
+        <v>99.13</v>
       </c>
       <c r="C44" s="6">
-        <v>99.33</v>
+        <v>99.56</v>
       </c>
       <c r="D44" s="6">
-        <v>99.83</v>
+        <v>99.34</v>
       </c>
       <c r="E44" s="6">
-        <v>99.83</v>
+        <v>99.56</v>
       </c>
       <c r="F44" s="6">
-        <v>97.67</v>
+        <v>96.45</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,7 +1203,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>88.02</v>
+        <v>88.42</v>
       </c>
       <c r="B48" s="6">
         <v>0</v>
@@ -1265,22 +1265,22 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>99.83</v>
+        <v>99.67</v>
       </c>
       <c r="B54" s="6">
-        <v>99.5</v>
+        <v>99.13</v>
       </c>
       <c r="C54" s="6">
-        <v>99.33</v>
+        <v>99.56</v>
       </c>
       <c r="D54" s="6">
-        <v>99.83</v>
+        <v>99.34</v>
       </c>
       <c r="E54" s="6">
-        <v>99.83</v>
+        <v>99.56</v>
       </c>
       <c r="F54" s="6">
-        <v>99.33</v>
+        <v>98.85</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,16 +1317,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>94.51</v>
+        <v>92.03</v>
       </c>
       <c r="B58" s="6">
-        <v>94.84</v>
+        <v>91.81</v>
       </c>
       <c r="C58" s="6">
-        <v>95.51</v>
+        <v>93.34</v>
       </c>
       <c r="D58" s="6">
-        <v>95.01</v>
+        <v>92.63</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -1379,22 +1379,22 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>99.83</v>
+        <v>99.67</v>
       </c>
       <c r="B64" s="6">
-        <v>99.5</v>
+        <v>99.13</v>
       </c>
       <c r="C64" s="6">
-        <v>99.33</v>
+        <v>99.56</v>
       </c>
       <c r="D64" s="6">
-        <v>99.83</v>
+        <v>99.34</v>
       </c>
       <c r="E64" s="6">
-        <v>99.83</v>
+        <v>99.56</v>
       </c>
       <c r="F64" s="6">
-        <v>99.33</v>
+        <v>98.85</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,16 +1431,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>94.51</v>
+        <v>92.03</v>
       </c>
       <c r="B68" s="6">
-        <v>94.84</v>
+        <v>91.81</v>
       </c>
       <c r="C68" s="6">
-        <v>92.68</v>
+        <v>92.08</v>
       </c>
       <c r="D68" s="6">
-        <v>93.01</v>
+        <v>92.57</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -1493,22 +1493,22 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>99.83</v>
+        <v>99.67</v>
       </c>
       <c r="B74" s="6">
-        <v>99.5</v>
+        <v>99.13</v>
       </c>
       <c r="C74" s="6">
-        <v>99.33</v>
+        <v>99.56</v>
       </c>
       <c r="D74" s="6">
-        <v>99.83</v>
+        <v>99.34</v>
       </c>
       <c r="E74" s="6">
-        <v>99.83</v>
+        <v>99.56</v>
       </c>
       <c r="F74" s="6">
-        <v>99.33</v>
+        <v>98.85</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1553,22 +1553,22 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>94.51</v>
+        <v>92.03</v>
       </c>
       <c r="B78" s="6">
-        <v>94.84</v>
+        <v>91.81</v>
       </c>
       <c r="C78" s="6">
-        <v>92.85</v>
+        <v>93.77</v>
       </c>
       <c r="D78" s="6">
-        <v>94.34</v>
+        <v>86.07</v>
       </c>
       <c r="E78" s="6">
-        <v>93.51</v>
+        <v>85.91</v>
       </c>
       <c r="F78" s="6">
-        <v>94.68</v>
+        <v>84.76</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -1619,22 +1619,22 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>99.83</v>
+        <v>99.67</v>
       </c>
       <c r="B84" s="6">
-        <v>99.5</v>
+        <v>99.13</v>
       </c>
       <c r="C84" s="6">
-        <v>99.33</v>
+        <v>99.56</v>
       </c>
       <c r="D84" s="6">
-        <v>99.83</v>
+        <v>99.34</v>
       </c>
       <c r="E84" s="6">
-        <v>99.83</v>
+        <v>99.56</v>
       </c>
       <c r="F84" s="6">
-        <v>99.33</v>
+        <v>98.85</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,10 +1663,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>94.34</v>
+        <v>92.19</v>
       </c>
       <c r="B88" s="6">
-        <v>95.84</v>
+        <v>90.01</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -1721,22 +1721,22 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>99.83</v>
+        <v>99.67</v>
       </c>
       <c r="B94" s="6">
-        <v>99.5</v>
+        <v>99.13</v>
       </c>
       <c r="C94" s="6">
-        <v>99.33</v>
+        <v>99.56</v>
       </c>
       <c r="D94" s="6">
-        <v>99.83</v>
+        <v>99.34</v>
       </c>
       <c r="E94" s="6">
-        <v>99.83</v>
+        <v>99.56</v>
       </c>
       <c r="F94" s="6">
-        <v>99.33</v>
+        <v>98.85</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,19 +1781,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>94.51</v>
+        <v>92.03</v>
       </c>
       <c r="B98" s="6">
-        <v>94.84</v>
+        <v>91.81</v>
       </c>
       <c r="C98" s="6">
-        <v>92.85</v>
+        <v>93.77</v>
       </c>
       <c r="D98" s="6">
-        <v>94.34</v>
+        <v>86.07</v>
       </c>
       <c r="E98" s="6">
-        <v>86.86</v>
+        <v>79.63</v>
       </c>
       <c r="F98" s="6">
         <v>0</v>

--- a/WatanyaPingTester/bin/Debug/res/alexColorReport.xlsx
+++ b/WatanyaPingTester/bin/Debug/res/alexColorReport.xlsx
@@ -26,8 +26,8 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="89">
   <si>
-    <t>From: 28/01/2018 at 1745
-To: 28/01/2018 at 1840</t>
+    <t>From: 31/01/2018 at 1059
+To: 31/01/2018 at 1338</t>
   </si>
   <si>
     <t>El Sheikh Zaid Gate:</t>
@@ -725,22 +725,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>99.67</v>
+        <v>99.09</v>
       </c>
       <c r="B6" s="6">
-        <v>99.13</v>
+        <v>98.26</v>
       </c>
       <c r="C6" s="6">
-        <v>99.56</v>
+        <v>98.76</v>
       </c>
       <c r="D6" s="6">
-        <v>99.34</v>
+        <v>98.11</v>
       </c>
       <c r="E6" s="6">
-        <v>99.29</v>
+        <v>98.13</v>
       </c>
       <c r="F6" s="6">
-        <v>96.89</v>
+        <v>97.11</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -791,22 +791,22 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>99.67</v>
+        <v>99.09</v>
       </c>
       <c r="B12" s="6">
-        <v>99.13</v>
+        <v>98.26</v>
       </c>
       <c r="C12" s="6">
-        <v>99.56</v>
+        <v>98.76</v>
       </c>
       <c r="D12" s="6">
-        <v>99.34</v>
+        <v>98.11</v>
       </c>
       <c r="E12" s="6">
-        <v>99.56</v>
+        <v>98.62</v>
       </c>
       <c r="F12" s="6">
-        <v>99.56</v>
+        <v>98.21</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -857,22 +857,22 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>99.67</v>
+        <v>99.09</v>
       </c>
       <c r="B18" s="6">
-        <v>99.13</v>
+        <v>98.26</v>
       </c>
       <c r="C18" s="6">
-        <v>99.56</v>
+        <v>98.76</v>
       </c>
       <c r="D18" s="6">
-        <v>99.34</v>
+        <v>98.11</v>
       </c>
       <c r="E18" s="6">
-        <v>99.56</v>
+        <v>98.68</v>
       </c>
       <c r="F18" s="6">
-        <v>90.82</v>
+        <v>80.52</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -923,22 +923,22 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>99.67</v>
+        <v>99.09</v>
       </c>
       <c r="B24" s="6">
-        <v>99.13</v>
+        <v>98.26</v>
       </c>
       <c r="C24" s="6">
-        <v>99.56</v>
+        <v>98.76</v>
       </c>
       <c r="D24" s="6">
-        <v>99.34</v>
+        <v>98.11</v>
       </c>
       <c r="E24" s="6">
-        <v>99.56</v>
+        <v>98.68</v>
       </c>
       <c r="F24" s="6">
-        <v>90.82</v>
+        <v>80.52</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,22 +983,22 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>99.4</v>
+        <v>97.93</v>
       </c>
       <c r="B28" s="6">
-        <v>97.87</v>
+        <v>96.42</v>
       </c>
       <c r="C28" s="6">
-        <v>97.49</v>
+        <v>96.44</v>
       </c>
       <c r="D28" s="6">
-        <v>93.45</v>
+        <v>86.63</v>
       </c>
       <c r="E28" s="6">
-        <v>91.97</v>
+        <v>84.16</v>
       </c>
       <c r="F28" s="6">
-        <v>92.79</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -1049,22 +1049,22 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>99.67</v>
+        <v>99.09</v>
       </c>
       <c r="B34" s="6">
-        <v>99.13</v>
+        <v>98.26</v>
       </c>
       <c r="C34" s="6">
-        <v>99.56</v>
+        <v>98.76</v>
       </c>
       <c r="D34" s="6">
-        <v>99.34</v>
+        <v>98.11</v>
       </c>
       <c r="E34" s="6">
-        <v>99.56</v>
+        <v>98.68</v>
       </c>
       <c r="F34" s="6">
-        <v>90.82</v>
+        <v>80.52</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,10 +1093,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>95.85</v>
+        <v>92.64</v>
       </c>
       <c r="B38" s="6">
-        <v>99.4</v>
+        <v>98.1</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1151,22 +1151,22 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>99.67</v>
+        <v>99.09</v>
       </c>
       <c r="B44" s="6">
-        <v>99.13</v>
+        <v>98.26</v>
       </c>
       <c r="C44" s="6">
-        <v>99.56</v>
+        <v>98.76</v>
       </c>
       <c r="D44" s="6">
-        <v>99.34</v>
+        <v>98.11</v>
       </c>
       <c r="E44" s="6">
-        <v>99.56</v>
+        <v>98.38</v>
       </c>
       <c r="F44" s="6">
-        <v>96.45</v>
+        <v>87.53</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,16 +1203,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>88.42</v>
+        <v>96.62</v>
       </c>
       <c r="B48" s="6">
-        <v>0</v>
+        <v>98.26</v>
       </c>
       <c r="C48" s="6">
-        <v>0</v>
+        <v>96.62</v>
       </c>
       <c r="D48" s="6">
-        <v>0</v>
+        <v>77.61</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1265,22 +1265,22 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>99.67</v>
+        <v>99.09</v>
       </c>
       <c r="B54" s="6">
-        <v>99.13</v>
+        <v>98.26</v>
       </c>
       <c r="C54" s="6">
-        <v>99.56</v>
+        <v>98.76</v>
       </c>
       <c r="D54" s="6">
-        <v>99.34</v>
+        <v>98.11</v>
       </c>
       <c r="E54" s="6">
-        <v>99.56</v>
+        <v>98.76</v>
       </c>
       <c r="F54" s="6">
-        <v>98.85</v>
+        <v>98.51</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,16 +1317,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>92.03</v>
+        <v>94.66</v>
       </c>
       <c r="B58" s="6">
-        <v>91.81</v>
+        <v>95.3</v>
       </c>
       <c r="C58" s="6">
-        <v>93.34</v>
+        <v>95.19</v>
       </c>
       <c r="D58" s="6">
-        <v>92.63</v>
+        <v>94.78</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -1379,22 +1379,22 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>99.67</v>
+        <v>99.09</v>
       </c>
       <c r="B64" s="6">
-        <v>99.13</v>
+        <v>98.26</v>
       </c>
       <c r="C64" s="6">
-        <v>99.56</v>
+        <v>98.76</v>
       </c>
       <c r="D64" s="6">
-        <v>99.34</v>
+        <v>98.11</v>
       </c>
       <c r="E64" s="6">
-        <v>99.56</v>
+        <v>98.76</v>
       </c>
       <c r="F64" s="6">
-        <v>98.85</v>
+        <v>98.51</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,16 +1431,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>92.03</v>
+        <v>94.66</v>
       </c>
       <c r="B68" s="6">
-        <v>91.81</v>
+        <v>95.3</v>
       </c>
       <c r="C68" s="6">
-        <v>92.08</v>
+        <v>94.96</v>
       </c>
       <c r="D68" s="6">
-        <v>92.57</v>
+        <v>0</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -1493,22 +1493,22 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>99.67</v>
+        <v>99.09</v>
       </c>
       <c r="B74" s="6">
-        <v>99.13</v>
+        <v>98.26</v>
       </c>
       <c r="C74" s="6">
-        <v>99.56</v>
+        <v>98.76</v>
       </c>
       <c r="D74" s="6">
-        <v>99.34</v>
+        <v>98.11</v>
       </c>
       <c r="E74" s="6">
-        <v>99.56</v>
+        <v>98.76</v>
       </c>
       <c r="F74" s="6">
-        <v>98.85</v>
+        <v>98.51</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1553,22 +1553,22 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>92.03</v>
+        <v>94.66</v>
       </c>
       <c r="B78" s="6">
-        <v>91.81</v>
+        <v>95.3</v>
       </c>
       <c r="C78" s="6">
-        <v>93.77</v>
+        <v>94.83</v>
       </c>
       <c r="D78" s="6">
-        <v>86.07</v>
+        <v>93.7</v>
       </c>
       <c r="E78" s="6">
-        <v>85.91</v>
+        <v>94.61</v>
       </c>
       <c r="F78" s="6">
-        <v>84.76</v>
+        <v>94.42</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -1619,22 +1619,22 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>99.67</v>
+        <v>99.09</v>
       </c>
       <c r="B84" s="6">
-        <v>99.13</v>
+        <v>98.26</v>
       </c>
       <c r="C84" s="6">
-        <v>99.56</v>
+        <v>98.76</v>
       </c>
       <c r="D84" s="6">
-        <v>99.34</v>
+        <v>98.11</v>
       </c>
       <c r="E84" s="6">
-        <v>99.56</v>
+        <v>98.76</v>
       </c>
       <c r="F84" s="6">
-        <v>98.85</v>
+        <v>98.51</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,10 +1663,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>92.19</v>
+        <v>70.63</v>
       </c>
       <c r="B88" s="6">
-        <v>90.01</v>
+        <v>68.73</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -1721,22 +1721,22 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>99.67</v>
+        <v>99.09</v>
       </c>
       <c r="B94" s="6">
-        <v>99.13</v>
+        <v>98.26</v>
       </c>
       <c r="C94" s="6">
-        <v>99.56</v>
+        <v>98.76</v>
       </c>
       <c r="D94" s="6">
-        <v>99.34</v>
+        <v>98.11</v>
       </c>
       <c r="E94" s="6">
-        <v>99.56</v>
+        <v>98.76</v>
       </c>
       <c r="F94" s="6">
-        <v>98.85</v>
+        <v>98.51</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,19 +1781,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>92.03</v>
+        <v>94.66</v>
       </c>
       <c r="B98" s="6">
-        <v>91.81</v>
+        <v>95.3</v>
       </c>
       <c r="C98" s="6">
-        <v>93.77</v>
+        <v>94.83</v>
       </c>
       <c r="D98" s="6">
-        <v>86.07</v>
+        <v>93.7</v>
       </c>
       <c r="E98" s="6">
-        <v>79.63</v>
+        <v>87.06</v>
       </c>
       <c r="F98" s="6">
         <v>0</v>
